--- a/NSX-T Case Study.xlsx
+++ b/NSX-T Case Study.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caldpr-my.sharepoint.com/personal/greg_worman_cdpr_ca_gov/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Debian\home\nschmidt\nsx-ninja-design-v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4810F327-4046-4524-B0AA-C5ED336FA5CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="83">
   <si>
     <t>Design Decision</t>
   </si>
@@ -203,17 +204,92 @@
     <t xml:space="preserve">All tenants must have access to shared services provided by ZCS </t>
   </si>
   <si>
-    <t>Dedicated firewall hardware?</t>
+    <t xml:space="preserve">We'll consider Tier-1 Stateful Services SAFFONAT </t>
+  </si>
+  <si>
+    <t>Customers can manage their own N-S security chains through vCD</t>
+  </si>
+  <si>
+    <t>Customers may prefer using their own vendor-proprietary services at the edge.</t>
+  </si>
+  <si>
+    <t>Multiple NSX-T Manager instances are required</t>
+  </si>
+  <si>
+    <t>Dedicated compute instances can be peeled off from the general pool</t>
+  </si>
+  <si>
+    <t>More cost for dedicated customers (but they're probably already paying it for V)</t>
+  </si>
+  <si>
+    <t>T0 Max is 1k</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Service Insertion w/ Partners is mandatory</t>
+  </si>
+  <si>
+    <t>Breakout based on tier?</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>AZ? Region?</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>This doesn't cost as much as V, and will probably be an easy value add</t>
+  </si>
+  <si>
+    <t>Customers may have difficulty getting used to vwire deployments if they don't already use them</t>
+  </si>
+  <si>
+    <t>vCD RBAC - use vCD as your front door, everywhere.</t>
+  </si>
+  <si>
+    <t>vCD is already paid fo</t>
+  </si>
+  <si>
+    <t>vRNI?</t>
+  </si>
+  <si>
+    <t>vRNI costs extra</t>
+  </si>
+  <si>
+    <t>We're assuming physical means hardware network security</t>
+  </si>
+  <si>
+    <t>Service Insertion w/ Partners</t>
+  </si>
+  <si>
+    <t>AZ -&gt; NSX Manager mapping?</t>
+  </si>
+  <si>
+    <t>Migrate E-W firewalling to T1s, DFW</t>
+  </si>
+  <si>
+    <t>$$$</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -268,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -280,12 +356,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="10">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="hair">
           <color auto="1"/>
@@ -387,6 +499,22 @@
         <right/>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="hair">
+          <color auto="1"/>
+        </left>
+        <right style="hair">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="hair">
+          <color auto="1"/>
+        </vertical>
+        <horizontal/>
       </border>
     </dxf>
   </dxfs>
@@ -403,14 +531,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="6">
-  <autoFilter ref="A1:E28"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Requirement Number" dataDxfId="5"/>
-    <tableColumn id="2" name="Requirement " dataDxfId="4"/>
-    <tableColumn id="3" name="Design Decision" dataDxfId="3"/>
-    <tableColumn id="4" name="Justification" dataDxfId="2"/>
-    <tableColumn id="5" name="Implications" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H28" totalsRowShown="0" headerRowDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A1:H28" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Requirement Number" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Requirement " dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Design Decision" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Justification" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Implications" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{1A195ED8-3238-4EBE-B08B-32551679C519}" name="Column1" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{23582E24-A59D-48B1-A3AC-20AA2AEDC31E}" name="Column2" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{D62A15DD-DEAD-4956-91D2-46EB916A0BEE}" name="Column3" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -678,11 +809,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +825,7 @@
     <col min="5" max="5" width="31.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -710,8 +841,17 @@
       <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -721,109 +861,183 @@
       <c r="C2" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="C4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>75</v>
+      </c>
       <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>77</v>
+      </c>
       <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -833,8 +1047,11 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>27</v>
       </c>
@@ -844,8 +1061,11 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -855,8 +1075,11 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -866,8 +1089,11 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -877,8 +1103,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -888,8 +1117,11 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -899,8 +1131,11 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
@@ -910,8 +1145,11 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>57</v>
       </c>
@@ -921,8 +1159,11 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -932,8 +1173,11 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
@@ -943,8 +1187,11 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>45</v>
       </c>
@@ -954,8 +1201,11 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -965,8 +1215,11 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -976,8 +1229,11 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -987,8 +1243,11 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -998,8 +1257,11 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>55</v>
       </c>
@@ -1009,8 +1271,12 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1020,6 +1286,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AB9017EDC6330D49A29C5C2F08007743" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="299467b77d94a8a2d03c680997cb5c5c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="d9ccbed2-a1fb-48f4-bfc5-8694e754d655" xmlns:ns4="9e5d811c-7960-4d25-91ca-82c16855784e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c5742686ae61b6755b8a0a858379275" ns3:_="" ns4:_="">
     <xsd:import namespace="d9ccbed2-a1fb-48f4-bfc5-8694e754d655"/>
@@ -1222,15 +1497,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1238,6 +1504,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94789067-0A1B-4A61-85F4-241000BC3366}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F79948E-C095-4BE9-AB35-61AD2892D9E1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1252,14 +1526,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94789067-0A1B-4A61-85F4-241000BC3366}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
